--- a/init-data/hzero-scheduler/hzero_platform/hzero-platform-lov.xlsx
+++ b/init-data/hzero-scheduler/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="430">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-11-17</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2067,6 +2070,9 @@
     <t>public_flag</t>
   </si>
   <si>
+    <t>decrypt_field</t>
+  </si>
+  <si>
     <t>hpfm_lov-8</t>
   </si>
   <si>
@@ -2080,6 +2086,9 @@
   </si>
   <si>
     <t>可用执行器</t>
+  </si>
+  <si>
+    <t>Available Actuators</t>
   </si>
   <si>
     <t>新建任务可选择的执行器</t>
@@ -2128,6 +2137,9 @@
     <t>角色列表</t>
   </si>
   <si>
+    <t>Role List</t>
+  </si>
+  <si>
     <t>SELECT
 	ir.id,
 	ir.name,
@@ -2159,6 +2171,9 @@
     <t>并发可执行</t>
   </si>
   <si>
+    <t>Concurrent Execution</t>
+  </si>
+  <si>
     <t>SELECT
 	executable_id,
 	executable_code,
@@ -2187,19 +2202,34 @@
     <t>hpfm_lov-11</t>
   </si>
   <si>
+    <t>HSDR.EXECUTOR.SCOPE</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>执行器权限层级</t>
+  </si>
+  <si>
+    <t>Actuator Permission Level</t>
+  </si>
+  <si>
+    <t>hpfm_lov-12</t>
+  </si>
+  <si>
     <t>HSDR.EXECUTOR_STATUS</t>
   </si>
   <si>
-    <t>IDP</t>
-  </si>
-  <si>
     <t>执行器状态</t>
   </si>
   <si>
+    <t>Actuator Status</t>
+  </si>
+  <si>
     <t>前端只会使用 tag(标记) 中包含 web 的数据</t>
   </si>
   <si>
-    <t>hpfm_lov-12</t>
+    <t>hpfm_lov-13</t>
   </si>
   <si>
     <t>HSDR.EXECUTOR_STRATEGY</t>
@@ -2208,7 +2238,10 @@
     <t>执行器策略</t>
   </si>
   <si>
-    <t>hpfm_lov-13</t>
+    <t>Actuator Strategy</t>
+  </si>
+  <si>
+    <t>hpfm_lov-14</t>
   </si>
   <si>
     <t>HSDR.FAIL_STRATEGY</t>
@@ -2217,7 +2250,10 @@
     <t>失败策略</t>
   </si>
   <si>
-    <t>hpfm_lov-14</t>
+    <t>Failure Strategy</t>
+  </si>
+  <si>
+    <t>hpfm_lov-15</t>
   </si>
   <si>
     <t>HSDR.GLUE_TYPE</t>
@@ -2226,10 +2262,10 @@
     <t>调度任务类型</t>
   </si>
   <si>
-    <t>运行模式</t>
-  </si>
-  <si>
-    <t>hpfm_lov-15</t>
+    <t>Scheduling Task Type</t>
+  </si>
+  <si>
+    <t>hpfm_lov-16</t>
   </si>
   <si>
     <t>HSDR.JOB.SOURCE_FLAG</t>
@@ -2238,7 +2274,10 @@
     <t>调度任务来源标识</t>
   </si>
   <si>
-    <t>hpfm_lov-16</t>
+    <t>Schedule Task Source Identification</t>
+  </si>
+  <si>
+    <t>hpfm_lov-17</t>
   </si>
   <si>
     <t>HSDR.JOB_LOG_CLEAR_TYPE</t>
@@ -2247,7 +2286,10 @@
     <t>日志清理类型</t>
   </si>
   <si>
-    <t>hpfm_lov-17</t>
+    <t>Log Cleaning Type</t>
+  </si>
+  <si>
+    <t>hpfm_lov-18</t>
   </si>
   <si>
     <t>HSDR.JOB_STATUS</t>
@@ -2256,7 +2298,10 @@
     <t>任务状态</t>
   </si>
   <si>
-    <t>hpfm_lov-18</t>
+    <t>Task Status</t>
+  </si>
+  <si>
+    <t>hpfm_lov-19</t>
   </si>
   <si>
     <t>HSDR.LOG.CLIENT_RESULT</t>
@@ -2265,13 +2310,19 @@
     <t>客户端执行结果</t>
   </si>
   <si>
-    <t>hpfm_lov-19</t>
+    <t>Client Execution Result</t>
+  </si>
+  <si>
+    <t>hpfm_lov-20</t>
   </si>
   <si>
     <t>HSDR.LOG.JOB_INFO</t>
   </si>
   <si>
     <t>日志清理选择任务</t>
+  </si>
+  <si>
+    <t>Log Cleanup Selection Task</t>
   </si>
   <si>
     <t>SELECT
@@ -2299,13 +2350,10 @@
         &lt;/if&gt;</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>jobId</t>
   </si>
   <si>
-    <t>hpfm_lov-20</t>
+    <t>hpfm_lov-21</t>
   </si>
   <si>
     <t>HSDR.LOG.JOB_RESULT</t>
@@ -2314,7 +2362,10 @@
     <t>任务调度结果</t>
   </si>
   <si>
-    <t>hpfm_lov-21</t>
+    <t>Task Scheduling Result</t>
+  </si>
+  <si>
+    <t>hpfm_lov-22</t>
   </si>
   <si>
     <t>HSDR.PARAM_EDIT_TYPE</t>
@@ -2323,7 +2374,10 @@
     <t>编辑类型</t>
   </si>
   <si>
-    <t>hpfm_lov-22</t>
+    <t>Edit Type</t>
+  </si>
+  <si>
+    <t>hpfm_lov-23</t>
   </si>
   <si>
     <t>HSDR.PARAM_FORMAT</t>
@@ -2332,7 +2386,10 @@
     <t>参数格式</t>
   </si>
   <si>
-    <t>hpfm_lov-23</t>
+    <t>Parameter Format</t>
+  </si>
+  <si>
+    <t>hpfm_lov-24</t>
   </si>
   <si>
     <t>HSDR.REQUEST.CONCURRENT</t>
@@ -2344,13 +2401,16 @@
     <t>并发请求选择并发程序</t>
   </si>
   <si>
+    <t>Concurrent Request Selection Concurrent Program</t>
+  </si>
+  <si>
     <t>并发请求根据权限过滤选择并发程序</t>
   </si>
   <si>
     <t>/v1/{organizationId}/concurrents/usable</t>
   </si>
   <si>
-    <t>hpfm_lov-24</t>
+    <t>hpfm_lov-25</t>
   </si>
   <si>
     <t>HSDR.REQUEST.CONCURRENT_SITE</t>
@@ -2359,13 +2419,16 @@
     <t>并发请求选择并发程序(平台级)</t>
   </si>
   <si>
+    <t>Concurrent Request Selection Concurrent Program (Platform Level)</t>
+  </si>
+  <si>
     <t>平台新建并发请求选择并发程序,没有权限过滤</t>
   </si>
   <si>
     <t>/v1/concurrents/usable</t>
   </si>
   <si>
-    <t>hpfm_lov-25</t>
+    <t>hpfm_lov-26</t>
   </si>
   <si>
     <t>HSDR.REQUEST.INTERVAL_TYPE</t>
@@ -2374,6 +2437,9 @@
     <t>时间间隔类型</t>
   </si>
   <si>
+    <t>Time Interval Type</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2416,24 +2482,45 @@
     <t>*</t>
   </si>
   <si>
+    <t>租户级</t>
+  </si>
+  <si>
+    <t>Tenant Level</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>平台级</t>
+  </si>
+  <si>
+    <t>Platform Level</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>ONLINE</t>
   </si>
   <si>
     <t>在线</t>
   </si>
   <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>web</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>A-OFFLINE</t>
   </si>
   <si>
     <t>自动下线</t>
   </si>
   <si>
+    <t>Automatically Log Off</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -2443,10 +2530,13 @@
     <t>人工下线</t>
   </si>
   <si>
-    <t>下线</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Manual Offline</t>
+  </si>
+  <si>
+    <t>M-OFFLINE</t>
+  </si>
+  <si>
+    <t>手动下线</t>
   </si>
   <si>
     <t>POLLING</t>
@@ -2455,42 +2545,63 @@
     <t>轮询</t>
   </si>
   <si>
+    <t>Polling</t>
+  </si>
+  <si>
     <t>WEIGHT</t>
   </si>
   <si>
     <t>执行器权重</t>
   </si>
   <si>
+    <t>Actuator Weight</t>
+  </si>
+  <si>
     <t>JOB_WEIGHT</t>
   </si>
   <si>
     <t>任务-执行器权重</t>
   </si>
   <si>
+    <t>Task-Executor Weight</t>
+  </si>
+  <si>
     <t>RETRY</t>
   </si>
   <si>
     <t>重试</t>
   </si>
   <si>
+    <t>Retry</t>
+  </si>
+  <si>
     <t>IGNORE</t>
   </si>
   <si>
     <t>忽略</t>
   </si>
   <si>
+    <t>Ignore</t>
+  </si>
+  <si>
     <t>TRANSFER</t>
   </si>
   <si>
     <t>转移</t>
   </si>
   <si>
+    <t>Transfer</t>
+  </si>
+  <si>
     <t>SIMPLE</t>
   </si>
   <si>
     <t>简单任务</t>
   </si>
   <si>
+    <t>Simple Task</t>
+  </si>
+  <si>
     <t>JOB</t>
   </si>
   <si>
@@ -2515,21 +2626,33 @@
     <t>清理一天之前日志数据</t>
   </si>
   <si>
+    <t>Clean Up Log Data One Day Ago</t>
+  </si>
+  <si>
     <t>清理一周之前日志数据</t>
   </si>
   <si>
+    <t>Clean Up Log Data A Week Ago</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>清理一个月之前日志数据</t>
   </si>
   <si>
+    <t>Clean Up Log Data One Month Ago</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>清理三个月之前日志数据</t>
   </si>
   <si>
+    <t>Clean Up The Log Data Three Months Ago</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -2539,6 +2662,9 @@
     <t>清理六个月以前日志数据</t>
   </si>
   <si>
+    <t>Clean Up Log Data From Six Months Ago</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
@@ -2548,6 +2674,9 @@
     <t>清理一年以前日志数据</t>
   </si>
   <si>
+    <t>Clean Up Log Data From A Year Ago</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
@@ -2557,6 +2686,9 @@
     <t>清除所有日志记录</t>
   </si>
   <si>
+    <t>Clear All Log Records</t>
+  </si>
+  <si>
     <t>70</t>
   </si>
   <si>
@@ -2566,60 +2698,90 @@
     <t>结束</t>
   </si>
   <si>
+    <t>End</t>
+  </si>
+  <si>
     <t>NORMAL</t>
   </si>
   <si>
     <t>正常</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>PAUSED</t>
   </si>
   <si>
     <t>暂停</t>
   </si>
   <si>
+    <t>Time Out</t>
+  </si>
+  <si>
     <t>COMPLETE</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
+    <t>Carry Out</t>
+  </si>
+  <si>
     <t>ERROR</t>
   </si>
   <si>
     <t>错误</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>BLOCKED</t>
   </si>
   <si>
     <t>阻塞</t>
   </si>
   <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t>SUCCESS</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>FAILURE</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
+    <t>Failure</t>
+  </si>
+  <si>
     <t>DOING</t>
   </si>
   <si>
     <t>运行中</t>
   </si>
   <si>
+    <t>Running</t>
+  </si>
+  <si>
     <t>WARNING</t>
   </si>
   <si>
     <t>警告</t>
   </si>
   <si>
+    <t>Caveat</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
@@ -2632,48 +2794,84 @@
     <t>文本</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>CHECKBOX</t>
   </si>
   <si>
     <t>勾选框</t>
   </si>
   <si>
+    <t>Check Box</t>
+  </si>
+  <si>
     <t>COMBOBOX</t>
   </si>
   <si>
     <t>下拉单选</t>
   </si>
   <si>
+    <t>Drop Down</t>
+  </si>
+  <si>
     <t>DATAPICKER</t>
   </si>
   <si>
     <t>日期选择框</t>
   </si>
   <si>
+    <t>Date Selection Box</t>
+  </si>
+  <si>
     <t>INPUTNUMBER</t>
   </si>
   <si>
     <t>数字框</t>
   </si>
   <si>
+    <t>Number Box</t>
+  </si>
+  <si>
     <t>MULTIPLE</t>
   </si>
   <si>
     <t>下拉多选</t>
   </si>
   <si>
+    <t>Drop-Down Multiple Selection</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
+    <t>DATEPICKER</t>
+  </si>
+  <si>
+    <t>DATETIMEPICKER</t>
+  </si>
+  <si>
+    <t>日期时间选择框</t>
+  </si>
+  <si>
+    <t>Date And Time Selection Box</t>
+  </si>
+  <si>
     <t>NUMERICAL</t>
   </si>
   <si>
     <t>数字</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -2683,24 +2881,36 @@
     <t>天</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>HOUR</t>
   </si>
   <si>
     <t>时</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>MINUTE</t>
   </si>
   <si>
     <t>分</t>
   </si>
   <si>
+    <t>Minute</t>
+  </si>
+  <si>
     <t>SECOND</t>
   </si>
   <si>
     <t>秒</t>
   </si>
   <si>
+    <t>Second</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2743,31 +2953,37 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-75</t>
+    <t>hpfm_lov_view_header-81</t>
   </si>
   <si>
     <t>可用执行器列表</t>
   </si>
   <si>
+    <t>List Of Available Actuators</t>
+  </si>
+  <si>
     <t>executorName</t>
   </si>
   <si>
     <t>选择可用执行器列表</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-76</t>
+    <t>hpfm_lov_view_header-82</t>
   </si>
   <si>
     <t>并发请求权限控制选择角色</t>
   </si>
   <si>
+    <t>Concurrent Request Permission Control Select Role</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>选择角色</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-77</t>
+    <t>hpfm_lov_view_header-83</t>
   </si>
   <si>
     <t>HSDR.CONC_REQUEST.CONCURRENT</t>
@@ -2776,6 +2992,9 @@
     <t>创建并发请求选择并发程序</t>
   </si>
   <si>
+    <t>Create Concurrent Request Select Concurrent Program</t>
+  </si>
+  <si>
     <t>concurrentId</t>
   </si>
   <si>
@@ -2785,24 +3004,30 @@
     <t>选择并发程序</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-78</t>
+    <t>hpfm_lov_view_header-84</t>
   </si>
   <si>
     <t>选择并发可执行</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-79</t>
+    <t>hpfm_lov_view_header-85</t>
+  </si>
+  <si>
+    <t>taskId</t>
   </si>
   <si>
     <t>选择任务</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-80</t>
+    <t>hpfm_lov_view_header-86</t>
   </si>
   <si>
     <t>创建并发请求选择并发程序(平台级)</t>
   </si>
   <si>
+    <t>Create Concurrent Requests And Select Concurrent Programs (Platform Level)</t>
+  </si>
+  <si>
     <t>值集查询视图行表</t>
   </si>
   <si>
@@ -2815,7 +3040,10 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>display:zh_CN</t>
@@ -2836,115 +3064,148 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-83</t>
+    <t>hpfm_lov_view_line-89</t>
   </si>
   <si>
     <t>执行器编码</t>
   </si>
   <si>
+    <t>Actuator Coding</t>
+  </si>
+  <si>
     <t>executorCode</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-84</t>
+    <t>hpfm_lov_view_line-90</t>
   </si>
   <si>
     <t>执行器名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-85</t>
+    <t>Actuator Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-91</t>
   </si>
   <si>
     <t>服务</t>
   </si>
   <si>
+    <t>Services</t>
+  </si>
+  <si>
     <t>serverName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-86</t>
+    <t>hpfm_lov_view_line-92</t>
   </si>
   <si>
     <t>角色描述</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-87</t>
+    <t>hpfm_lov_view_line-93</t>
   </si>
   <si>
     <t>角色名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-88</t>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-94</t>
   </si>
   <si>
     <t>并发程序代码</t>
   </si>
   <si>
+    <t>Concurrent Program Code</t>
+  </si>
+  <si>
     <t>concCode</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-89</t>
+    <t>hpfm_lov_view_line-95</t>
   </si>
   <si>
     <t>并发程序名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-90</t>
+    <t>Concurrent Program Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-96</t>
   </si>
   <si>
     <t>可执行编码</t>
   </si>
   <si>
+    <t>Executable Code</t>
+  </si>
+  <si>
     <t>executableCode</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-91</t>
+    <t>hpfm_lov_view_line-97</t>
   </si>
   <si>
     <t>可执行名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-92</t>
+    <t>Executable Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-98</t>
   </si>
   <si>
     <t>任务描述</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-93</t>
+    <t>Mission Details</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-99</t>
   </si>
   <si>
     <t>任务编码</t>
   </si>
   <si>
+    <t>Task Code</t>
+  </si>
+  <si>
     <t>jobCode</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-94</t>
+    <t>hpfm_lov_view_line-100</t>
   </si>
   <si>
     <t>任务ID</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-95</t>
-  </si>
-  <si>
-    <t>taskId</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-96</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-97</t>
+    <t>Task Id</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-101</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-102</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-103</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +3213,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3128,12 +3389,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3174,6 +3445,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3344,7 +3620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3438,6 +3714,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4023,7 +4302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X97"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4094,7 +4373,7 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4127,2900 +4406,3362 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>92</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>98</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="V11" t="s">
+        <v>85</v>
       </c>
       <c r="X11" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
-      </c>
-      <c r="X12" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
-      </c>
-      <c r="X13" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T14" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
       </c>
       <c r="U14" t="s">
-        <v>82</v>
-      </c>
-      <c r="X14" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
-      </c>
-      <c r="X15" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T16" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>82</v>
-      </c>
-      <c r="X16" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T17" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N17" t="s">
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
-      </c>
-      <c r="X17" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="T18" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
       </c>
       <c r="U18" t="s">
-        <v>82</v>
-      </c>
-      <c r="X18" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" t="s">
-        <v>126</v>
-      </c>
-      <c r="T19" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
       </c>
       <c r="U19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
-        <v>127</v>
-      </c>
-      <c r="W19" t="s">
-        <v>128</v>
-      </c>
-      <c r="X19" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
-      </c>
-      <c r="T20" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>143</v>
       </c>
       <c r="U20" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>85</v>
       </c>
       <c r="X20" t="s">
-        <v>80</v>
+        <v>144</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N21" t="s">
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>82</v>
-      </c>
-      <c r="X21" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
       </c>
       <c r="U22" t="s">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>143</v>
-      </c>
-      <c r="T23" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
       </c>
       <c r="U23" t="s">
-        <v>82</v>
-      </c>
-      <c r="X23" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>148</v>
-      </c>
-      <c r="T24" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" t="s">
+        <v>163</v>
       </c>
       <c r="U24" t="s">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>159</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>167</v>
+      </c>
+      <c r="K25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
-      </c>
-      <c r="T25" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" t="s">
+        <v>169</v>
       </c>
       <c r="U25" t="s">
-        <v>82</v>
-      </c>
-      <c r="X25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="V25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="s" s="43">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s" s="44">
-        <v>154</v>
-      </c>
-      <c r="F27" t="s" s="45">
-        <v>155</v>
-      </c>
-      <c r="G27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" t="s" s="46">
-        <v>157</v>
-      </c>
-      <c r="I27" t="s">
-        <v>158</v>
-      </c>
-      <c r="J27" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s" s="44">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s" s="45">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s" s="46">
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s" s="47">
+        <v>179</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" t="s">
         <v>60</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>61</v>
       </c>
-      <c r="M27" t="s" s="47">
+      <c r="M28" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N27" t="s">
-        <v>160</v>
-      </c>
-      <c r="O27" t="s">
-        <v>161</v>
-      </c>
-      <c r="P27" t="s" s="48">
-        <v>162</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>163</v>
-      </c>
-      <c r="R27" t="s">
-        <v>164</v>
-      </c>
-      <c r="S27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28">
-        <f>值集数据!$E$11</f>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" t="s">
-        <v>168</v>
+      <c r="N28" t="s" s="49">
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="P28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q28" t="s" s="50">
+        <v>184</v>
+      </c>
+      <c r="R28" t="s">
+        <v>185</v>
       </c>
       <c r="S28" t="s">
-        <v>82</v>
+        <v>186</v>
+      </c>
+      <c r="T28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" t="s">
-        <v>172</v>
-      </c>
-      <c r="S29" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="s">
+        <v>190</v>
+      </c>
+      <c r="T29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N30" t="s">
-        <v>168</v>
-      </c>
-      <c r="O30" t="s">
-        <v>176</v>
-      </c>
-      <c r="S30" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="P30" t="s">
+        <v>193</v>
+      </c>
+      <c r="T30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>169</v>
-      </c>
-      <c r="S31" t="s">
-        <v>82</v>
+        <v>197</v>
+      </c>
+      <c r="P31" t="s">
+        <v>190</v>
+      </c>
+      <c r="T31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
-      </c>
-      <c r="O32" t="s">
-        <v>176</v>
-      </c>
-      <c r="S32" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="s">
+        <v>201</v>
+      </c>
+      <c r="T32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="N33" t="s">
+        <v>83</v>
       </c>
       <c r="O33" t="s">
-        <v>172</v>
-      </c>
-      <c r="S33" t="s">
-        <v>82</v>
+        <v>197</v>
+      </c>
+      <c r="P33" t="s">
+        <v>193</v>
+      </c>
+      <c r="T33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F34">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="N34" t="s">
+        <v>83</v>
       </c>
       <c r="O34" t="s">
-        <v>169</v>
-      </c>
-      <c r="S34" t="s">
-        <v>82</v>
+        <v>197</v>
+      </c>
+      <c r="P34" t="s">
+        <v>193</v>
+      </c>
+      <c r="T34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>80</v>
-      </c>
-      <c r="O35" t="s">
-        <v>176</v>
-      </c>
-      <c r="S35" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s">
+        <v>190</v>
+      </c>
+      <c r="T35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M36" t="s">
-        <v>80</v>
-      </c>
-      <c r="O36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S36" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F37">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J37" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s">
-        <v>80</v>
-      </c>
-      <c r="O37" t="s">
-        <v>169</v>
-      </c>
-      <c r="S37" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T37" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F38">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J38" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
-      </c>
-      <c r="O38" t="s">
-        <v>82</v>
-      </c>
-      <c r="S38" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="s">
+        <v>190</v>
+      </c>
+      <c r="T38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F39">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J39" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="M39" t="s">
-        <v>80</v>
-      </c>
-      <c r="O39" t="s">
-        <v>197</v>
-      </c>
-      <c r="S39" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="s">
+        <v>193</v>
+      </c>
+      <c r="T39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F40">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J40" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M40" t="s">
-        <v>80</v>
-      </c>
-      <c r="O40" t="s">
-        <v>169</v>
-      </c>
-      <c r="S40" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s">
+        <v>201</v>
+      </c>
+      <c r="T40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F41">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="J41" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s">
-        <v>80</v>
-      </c>
-      <c r="O41" t="s">
-        <v>176</v>
-      </c>
-      <c r="S41" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="s">
+        <v>190</v>
+      </c>
+      <c r="T41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="J42" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" t="s">
-        <v>172</v>
-      </c>
-      <c r="S42" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$16</f>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O43" t="s">
-        <v>204</v>
-      </c>
-      <c r="S43" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="s">
+        <v>234</v>
+      </c>
+      <c r="T43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F44">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$17</f>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="J44" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s">
-        <v>80</v>
-      </c>
-      <c r="O44" t="s">
-        <v>207</v>
-      </c>
-      <c r="S44" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="s">
+        <v>190</v>
+      </c>
+      <c r="T44" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F45">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$17</f>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="J45" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s">
-        <v>80</v>
-      </c>
-      <c r="O45" t="s">
-        <v>210</v>
-      </c>
-      <c r="S45" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="s">
+        <v>193</v>
+      </c>
+      <c r="T45" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F46">
-        <f>值集数据!$E$16</f>
+        <f>值集数据!$E$17</f>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J46" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s">
-        <v>80</v>
-      </c>
-      <c r="O46" t="s">
-        <v>213</v>
-      </c>
-      <c r="S46" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s">
+        <v>201</v>
+      </c>
+      <c r="T46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$17</f>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="J47" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M47" t="s">
-        <v>80</v>
-      </c>
-      <c r="O47" t="s">
-        <v>169</v>
-      </c>
-      <c r="S47" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P47" t="s">
+        <v>245</v>
+      </c>
+      <c r="T47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$17</f>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>80</v>
-      </c>
-      <c r="O48" t="s">
-        <v>176</v>
-      </c>
-      <c r="S48" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="s">
+        <v>249</v>
+      </c>
+      <c r="T48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$17</f>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="M49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O49" t="s">
-        <v>172</v>
-      </c>
-      <c r="S49" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="s">
+        <v>253</v>
+      </c>
+      <c r="T49" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$17</f>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H50" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="J50" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s">
-        <v>80</v>
-      </c>
-      <c r="O50" t="s">
-        <v>204</v>
-      </c>
-      <c r="S50" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="s">
+        <v>257</v>
+      </c>
+      <c r="T50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F51">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="I51" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s">
-        <v>80</v>
-      </c>
-      <c r="O51" t="s">
-        <v>207</v>
-      </c>
-      <c r="S51" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" t="s">
+        <v>190</v>
+      </c>
+      <c r="T51" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F52">
-        <f>值集数据!$E$17</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="J52" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s">
-        <v>80</v>
-      </c>
-      <c r="O52" t="s">
-        <v>210</v>
-      </c>
-      <c r="S52" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="s">
+        <v>193</v>
+      </c>
+      <c r="T52" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="J53" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="M53" t="s">
-        <v>80</v>
-      </c>
-      <c r="O53" t="s">
-        <v>169</v>
-      </c>
-      <c r="S53" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P53" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="I54" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="J54" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="M54" t="s">
-        <v>80</v>
-      </c>
-      <c r="O54" t="s">
-        <v>176</v>
-      </c>
-      <c r="S54" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="s">
+        <v>245</v>
+      </c>
+      <c r="T54" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="J55" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="M55" t="s">
-        <v>80</v>
-      </c>
-      <c r="O55" t="s">
-        <v>172</v>
-      </c>
-      <c r="S55" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" t="s">
+        <v>249</v>
+      </c>
+      <c r="T55" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H56" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="J56" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="M56" t="s">
-        <v>80</v>
-      </c>
-      <c r="O56" t="s">
-        <v>234</v>
-      </c>
-      <c r="S56" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="s">
+        <v>253</v>
+      </c>
+      <c r="T56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F57">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H57" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="I57" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="J57" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="M57" t="s">
-        <v>80</v>
-      </c>
-      <c r="O57" t="s">
-        <v>169</v>
-      </c>
-      <c r="S57" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="s">
+        <v>190</v>
+      </c>
+      <c r="T57" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F58">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="I58" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="J58" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="M58" t="s">
-        <v>80</v>
-      </c>
-      <c r="O58" t="s">
-        <v>176</v>
-      </c>
-      <c r="S58" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" t="s">
+        <v>193</v>
+      </c>
+      <c r="T58" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F59">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H59" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="J59" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="M59" t="s">
-        <v>80</v>
-      </c>
-      <c r="O59" t="s">
-        <v>169</v>
-      </c>
-      <c r="S59" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" t="s">
+        <v>201</v>
+      </c>
+      <c r="T59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F60">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="I60" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="M60" t="s">
-        <v>80</v>
-      </c>
-      <c r="O60" t="s">
-        <v>176</v>
-      </c>
-      <c r="S60" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N60" t="s">
+        <v>83</v>
+      </c>
+      <c r="P60" t="s">
+        <v>288</v>
+      </c>
+      <c r="T60" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$21</f>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="J61" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s">
-        <v>80</v>
-      </c>
-      <c r="O61" t="s">
-        <v>172</v>
-      </c>
-      <c r="S61" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N61" t="s">
+        <v>83</v>
+      </c>
+      <c r="P61" t="s">
+        <v>190</v>
+      </c>
+      <c r="T61" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$21</f>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="I62" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="J62" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="M62" t="s">
-        <v>80</v>
-      </c>
-      <c r="O62" t="s">
-        <v>204</v>
-      </c>
-      <c r="S62" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="s">
+        <v>193</v>
+      </c>
+      <c r="T62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F63">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="I63" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="J63" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="M63" t="s">
-        <v>80</v>
-      </c>
-      <c r="O63" t="s">
-        <v>207</v>
-      </c>
-      <c r="S63" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N63" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" t="s">
+        <v>190</v>
+      </c>
+      <c r="T63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F64">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H64" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="J64" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="M64" t="s">
-        <v>80</v>
-      </c>
-      <c r="O64" t="s">
-        <v>210</v>
-      </c>
-      <c r="S64" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N64" t="s">
+        <v>83</v>
+      </c>
+      <c r="P64" t="s">
+        <v>193</v>
+      </c>
+      <c r="T64" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F65">
-        <f>值集数据!$E$21</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H65" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="I65" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="J65" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="M65" t="s">
-        <v>80</v>
-      </c>
-      <c r="O65" t="s">
-        <v>248</v>
-      </c>
-      <c r="S65" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="s">
+        <v>201</v>
+      </c>
+      <c r="T65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="I66" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="J66" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="M66" t="s">
-        <v>80</v>
-      </c>
-      <c r="O66" t="s">
-        <v>169</v>
-      </c>
-      <c r="S66" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" t="s">
+        <v>245</v>
+      </c>
+      <c r="T66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="M67" t="s">
-        <v>80</v>
-      </c>
-      <c r="O67" t="s">
-        <v>176</v>
-      </c>
-      <c r="S67" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N67" t="s">
+        <v>83</v>
+      </c>
+      <c r="P67" t="s">
+        <v>249</v>
+      </c>
+      <c r="T67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$22</f>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="I68" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="J68" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="M68" t="s">
-        <v>80</v>
-      </c>
-      <c r="O68" t="s">
-        <v>172</v>
-      </c>
-      <c r="S68" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="s">
+        <v>253</v>
+      </c>
+      <c r="T68" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F69">
-        <f>值集数据!$E$25</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G69" t="s">
         <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="I69" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="J69" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="M69" t="s">
-        <v>80</v>
-      </c>
-      <c r="O69" t="s">
-        <v>169</v>
-      </c>
-      <c r="S69" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="s">
+        <v>308</v>
+      </c>
+      <c r="T69" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F70">
-        <f>值集数据!$E$25</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G70" t="s">
         <v>150</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="I70" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J70" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="M70" t="s">
-        <v>80</v>
-      </c>
-      <c r="O70" t="s">
-        <v>176</v>
-      </c>
-      <c r="S70" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="s">
+        <v>249</v>
+      </c>
+      <c r="T70" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F71">
-        <f>值集数据!$E$25</f>
+        <f>值集数据!$E$22</f>
       </c>
       <c r="G71" t="s">
         <v>150</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="J71" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="M71" t="s">
-        <v>80</v>
-      </c>
-      <c r="O71" t="s">
-        <v>172</v>
-      </c>
-      <c r="S71" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="s">
+        <v>253</v>
+      </c>
+      <c r="T71" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F72">
-        <f>值集数据!$E$25</f>
+        <f>值集数据!$E$23</f>
       </c>
       <c r="G72" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="I72" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="J72" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="M72" t="s">
-        <v>80</v>
-      </c>
-      <c r="O72" t="s">
-        <v>204</v>
-      </c>
-      <c r="S72" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P72" t="s">
+        <v>190</v>
+      </c>
+      <c r="T72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73">
+        <f>值集数据!$E$23</f>
+      </c>
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" t="s">
+        <v>316</v>
+      </c>
+      <c r="I73" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s">
+        <v>317</v>
+      </c>
+      <c r="M73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P73" t="s">
+        <v>193</v>
+      </c>
+      <c r="T73" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" t="s">
-        <v>261</v>
-      </c>
-      <c r="D74" t="s" s="49">
-        <v>262</v>
-      </c>
-      <c r="E74" t="s" s="50">
-        <v>263</v>
-      </c>
-      <c r="F74" t="s" s="51">
-        <v>264</v>
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74">
+        <f>值集数据!$E$23</f>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
-      </c>
-      <c r="I74" t="s" s="52">
-        <v>267</v>
-      </c>
-      <c r="J74" t="s" s="53">
-        <v>62</v>
-      </c>
-      <c r="K74" t="s">
-        <v>67</v>
-      </c>
-      <c r="L74" t="s">
-        <v>68</v>
+        <v>318</v>
+      </c>
+      <c r="I74" t="s">
+        <v>291</v>
+      </c>
+      <c r="J74" t="s">
+        <v>292</v>
       </c>
       <c r="M74" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="N74" t="s">
-        <v>269</v>
-      </c>
-      <c r="O74" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>272</v>
-      </c>
-      <c r="R74" t="s">
-        <v>273</v>
-      </c>
-      <c r="S74" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="T74" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>275</v>
-      </c>
-      <c r="F75" t="s">
-        <v>75</v>
+        <v>187</v>
+      </c>
+      <c r="F75">
+        <f>值集数据!$E$26</f>
       </c>
       <c r="G75" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
-      </c>
-      <c r="I75">
-        <f>值集数据!$E$8</f>
+        <v>319</v>
+      </c>
+      <c r="I75" t="s">
+        <v>320</v>
       </c>
       <c r="J75" t="s">
-        <v>80</v>
-      </c>
-      <c r="K75" t="s">
-        <v>83</v>
-      </c>
-      <c r="L75" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="M75" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="N75" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>169</v>
-      </c>
-      <c r="R75" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="P75" t="s">
+        <v>190</v>
       </c>
       <c r="T75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>279</v>
-      </c>
-      <c r="F76" t="s">
-        <v>85</v>
+        <v>187</v>
+      </c>
+      <c r="F76">
+        <f>值集数据!$E$26</f>
       </c>
       <c r="G76" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
-      </c>
-      <c r="I76">
-        <f>值集数据!$E$9</f>
+        <v>322</v>
+      </c>
+      <c r="I76" t="s">
+        <v>323</v>
       </c>
       <c r="J76" t="s">
-        <v>80</v>
-      </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-      <c r="L76" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="M76" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="N76" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>169</v>
-      </c>
-      <c r="R76" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="P76" t="s">
+        <v>193</v>
       </c>
       <c r="T76" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>283</v>
-      </c>
-      <c r="F77" t="s">
-        <v>284</v>
+        <v>187</v>
+      </c>
+      <c r="F77">
+        <f>值集数据!$E$26</f>
       </c>
       <c r="G77" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="H77" t="s">
-        <v>285</v>
-      </c>
-      <c r="I77">
-        <f>值集数据!$E$23</f>
+        <v>325</v>
+      </c>
+      <c r="I77" t="s">
+        <v>326</v>
       </c>
       <c r="J77" t="s">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s">
-        <v>286</v>
-      </c>
-      <c r="L77" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M77" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="N77" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>169</v>
-      </c>
-      <c r="R77" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="P77" t="s">
+        <v>201</v>
       </c>
       <c r="T77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78" t="s">
-        <v>91</v>
+        <v>187</v>
+      </c>
+      <c r="F78">
+        <f>值集数据!$E$26</f>
       </c>
       <c r="G78" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-      <c r="I78">
-        <f>值集数据!$E$10</f>
+        <v>328</v>
+      </c>
+      <c r="I78" t="s">
+        <v>329</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" t="s">
-        <v>94</v>
-      </c>
-      <c r="L78" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="M78" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="N78" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>169</v>
-      </c>
-      <c r="R78" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="P78" t="s">
+        <v>245</v>
       </c>
       <c r="T78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>291</v>
-      </c>
-      <c r="F79" t="s">
-        <v>124</v>
-      </c>
-      <c r="G79" t="s">
-        <v>125</v>
-      </c>
-      <c r="H79" t="s">
-        <v>125</v>
-      </c>
-      <c r="I79">
-        <f>值集数据!$E$19</f>
-      </c>
-      <c r="J79" t="s">
-        <v>80</v>
-      </c>
-      <c r="K79" t="s">
-        <v>128</v>
-      </c>
-      <c r="L79" t="s">
-        <v>128</v>
-      </c>
-      <c r="M79" t="s">
-        <v>292</v>
-      </c>
-      <c r="N79" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>169</v>
-      </c>
-      <c r="R79" t="s">
-        <v>80</v>
-      </c>
-      <c r="T79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
-        <v>293</v>
-      </c>
-      <c r="F80" t="s">
-        <v>145</v>
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" t="s" s="51">
+        <v>332</v>
+      </c>
+      <c r="E80" t="s" s="52">
+        <v>333</v>
+      </c>
+      <c r="F80" t="s" s="53">
+        <v>334</v>
       </c>
       <c r="G80" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="H80" t="s">
-        <v>294</v>
-      </c>
-      <c r="I80">
-        <f>值集数据!$E$24</f>
-      </c>
-      <c r="J80" t="s">
-        <v>80</v>
-      </c>
-      <c r="K80" t="s">
-        <v>286</v>
+        <v>336</v>
+      </c>
+      <c r="I80" t="s" s="54">
+        <v>337</v>
+      </c>
+      <c r="J80" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K80" t="s" s="56">
+        <v>63</v>
       </c>
       <c r="L80" t="s">
-        <v>287</v>
+        <v>68</v>
       </c>
       <c r="M80" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="N80" t="s">
-        <v>288</v>
+        <v>338</v>
+      </c>
+      <c r="O80" t="s">
+        <v>339</v>
+      </c>
+      <c r="P80" t="s">
+        <v>340</v>
       </c>
       <c r="Q80" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="R80" t="s">
-        <v>80</v>
+        <v>342</v>
+      </c>
+      <c r="S80" t="s">
+        <v>343</v>
       </c>
       <c r="T80" t="s">
-        <v>82</v>
+        <v>344</v>
+      </c>
+      <c r="U80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>345</v>
+      </c>
+      <c r="F81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s">
+        <v>346</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+      <c r="I81">
+        <f>值集数据!$E$8</f>
+      </c>
+      <c r="J81" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" t="s">
+        <v>83</v>
+      </c>
+      <c r="L81" t="s">
+        <v>86</v>
+      </c>
+      <c r="M81" t="s">
+        <v>348</v>
+      </c>
+      <c r="N81" t="s">
+        <v>349</v>
+      </c>
+      <c r="O81" t="s">
+        <v>349</v>
+      </c>
+      <c r="R81" t="s">
+        <v>190</v>
+      </c>
+      <c r="S81" t="s">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" t="s" s="54">
-        <v>296</v>
-      </c>
-      <c r="E82" t="s" s="55">
-        <v>297</v>
-      </c>
-      <c r="F82" t="s" s="56">
-        <v>298</v>
+      <c r="E82" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
       </c>
       <c r="G82" t="s">
-        <v>299</v>
-      </c>
-      <c r="H82" t="s" s="57">
-        <v>267</v>
-      </c>
-      <c r="I82" t="s">
-        <v>300</v>
+        <v>351</v>
+      </c>
+      <c r="H82" t="s">
+        <v>352</v>
+      </c>
+      <c r="I82">
+        <f>值集数据!$E$9</f>
       </c>
       <c r="J82" t="s">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s">
-        <v>161</v>
-      </c>
-      <c r="L82" t="s" s="58">
-        <v>302</v>
+        <v>83</v>
+      </c>
+      <c r="L82" t="s">
+        <v>93</v>
       </c>
       <c r="M82" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="N82" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="O82" t="s">
-        <v>305</v>
-      </c>
-      <c r="P82" t="s">
-        <v>70</v>
+        <v>354</v>
+      </c>
+      <c r="R82" t="s">
+        <v>190</v>
+      </c>
+      <c r="S82" t="s">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>306</v>
-      </c>
-      <c r="F83">
-        <f>值集数据!$E$75</f>
+        <v>355</v>
+      </c>
+      <c r="F83" t="s">
+        <v>356</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
-      </c>
-      <c r="H83">
-        <f>值集数据!$E$8</f>
-      </c>
-      <c r="I83" t="s">
-        <v>307</v>
+        <v>357</v>
+      </c>
+      <c r="H83" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J83" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="L83" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="M83" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="N83" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="O83" t="s">
-        <v>309</v>
-      </c>
-      <c r="P83" t="s">
-        <v>82</v>
+        <v>361</v>
+      </c>
+      <c r="R83" t="s">
+        <v>190</v>
+      </c>
+      <c r="S83" t="s">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>310</v>
-      </c>
-      <c r="F84">
-        <f>值集数据!$E$75</f>
+        <v>362</v>
+      </c>
+      <c r="F84" t="s">
+        <v>95</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84">
-        <f>值集数据!$E$8</f>
-      </c>
-      <c r="I84" t="s">
-        <v>311</v>
+        <v>96</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84">
+        <f>值集数据!$E$10</f>
       </c>
       <c r="J84" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="M84" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N84" t="s">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="O84" t="s">
-        <v>309</v>
-      </c>
-      <c r="P84" t="s">
-        <v>82</v>
+        <v>363</v>
+      </c>
+      <c r="R84" t="s">
+        <v>190</v>
+      </c>
+      <c r="S84" t="s">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>312</v>
-      </c>
-      <c r="F85">
-        <f>值集数据!$E$75</f>
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
-      </c>
-      <c r="H85">
-        <f>值集数据!$E$8</f>
-      </c>
-      <c r="I85" t="s">
-        <v>313</v>
+        <v>141</v>
+      </c>
+      <c r="H85" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="J85" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="K85" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="L85" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="M85" t="s">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="N85" t="s">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="O85" t="s">
-        <v>309</v>
-      </c>
-      <c r="P85" t="s">
-        <v>82</v>
+        <v>366</v>
+      </c>
+      <c r="R85" t="s">
+        <v>190</v>
+      </c>
+      <c r="S85" t="s">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>315</v>
-      </c>
-      <c r="F86">
-        <f>值集数据!$E$76</f>
+        <v>367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>165</v>
       </c>
       <c r="G86" t="s">
-        <v>80</v>
-      </c>
-      <c r="H86">
-        <f>值集数据!$E$9</f>
-      </c>
-      <c r="I86" t="s">
-        <v>316</v>
+        <v>368</v>
+      </c>
+      <c r="H86" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86">
+        <f>值集数据!$E$25</f>
       </c>
       <c r="J86" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="K86" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="L86" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="M86" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="N86" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="O86" t="s">
-        <v>318</v>
-      </c>
-      <c r="P86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>319</v>
-      </c>
-      <c r="F87">
-        <f>值集数据!$E$76</f>
-      </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
-      <c r="H87">
-        <f>值集数据!$E$9</f>
-      </c>
-      <c r="I87" t="s">
-        <v>320</v>
-      </c>
-      <c r="J87" t="s">
-        <v>320</v>
-      </c>
-      <c r="K87" t="s">
-        <v>169</v>
-      </c>
-      <c r="L87" t="s">
-        <v>281</v>
-      </c>
-      <c r="M87" t="s">
-        <v>82</v>
-      </c>
-      <c r="N87" t="s">
-        <v>82</v>
-      </c>
-      <c r="O87" t="s">
-        <v>318</v>
-      </c>
-      <c r="P87" t="s">
-        <v>82</v>
+        <v>361</v>
+      </c>
+      <c r="R86" t="s">
+        <v>190</v>
+      </c>
+      <c r="S86" t="s">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88">
-        <f>值集数据!$E$77</f>
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>370</v>
+      </c>
+      <c r="D88" t="s" s="57">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s" s="58">
+        <v>372</v>
+      </c>
+      <c r="F88" t="s" s="59">
+        <v>373</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
-      </c>
-      <c r="H88">
-        <f>值集数据!$E$23</f>
-      </c>
-      <c r="I88" t="s">
-        <v>322</v>
+        <v>374</v>
+      </c>
+      <c r="H88" t="s">
+        <v>375</v>
+      </c>
+      <c r="I88" t="s" s="60">
+        <v>337</v>
       </c>
       <c r="J88" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="K88" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="L88" t="s">
-        <v>323</v>
-      </c>
-      <c r="M88" t="s">
-        <v>82</v>
+        <v>183</v>
+      </c>
+      <c r="M88" t="s" s="61">
+        <v>378</v>
       </c>
       <c r="N88" t="s">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="O88" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="P88" t="s">
-        <v>82</v>
+        <v>381</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="F89">
-        <f>值集数据!$E$77</f>
+        <f>值集数据!$E$81</f>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H89">
-        <f>值集数据!$E$23</f>
-      </c>
-      <c r="I89" t="s">
-        <v>326</v>
+        <v>83</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89">
+        <f>值集数据!$E$8</f>
       </c>
       <c r="J89" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="K89" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="L89" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="M89" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="N89" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O89" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="P89" t="s">
-        <v>82</v>
+        <v>386</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="F90">
-        <f>值集数据!$E$78</f>
+        <f>值集数据!$E$81</f>
       </c>
       <c r="G90" t="s">
-        <v>80</v>
-      </c>
-      <c r="H90">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="I90" t="s">
-        <v>328</v>
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <f>值集数据!$E$8</f>
       </c>
       <c r="J90" t="s">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="K90" t="s">
-        <v>169</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="M90" t="s">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="N90" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O90" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="P90" t="s">
-        <v>82</v>
+        <v>386</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="F91">
-        <f>值集数据!$E$78</f>
+        <f>值集数据!$E$81</f>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
-      </c>
-      <c r="H91">
-        <f>值集数据!$E$10</f>
-      </c>
-      <c r="I91" t="s">
-        <v>331</v>
+        <v>83</v>
+      </c>
+      <c r="H91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I91">
+        <f>值集数据!$E$8</f>
       </c>
       <c r="J91" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="K91" t="s">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="M91" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="N91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O91" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>82</v>
+        <v>386</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="F92">
-        <f>值集数据!$E$79</f>
+        <f>值集数据!$E$82</f>
       </c>
       <c r="G92" t="s">
-        <v>80</v>
-      </c>
-      <c r="H92">
-        <f>值集数据!$E$19</f>
-      </c>
-      <c r="I92" t="s">
-        <v>333</v>
+        <v>83</v>
+      </c>
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92">
+        <f>值集数据!$E$9</f>
       </c>
       <c r="J92" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="K92" t="s">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="M92" t="s">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="N92" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O92" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="P92" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="F93">
-        <f>值集数据!$E$79</f>
+        <f>值集数据!$E$82</f>
       </c>
       <c r="G93" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93">
-        <f>值集数据!$E$19</f>
-      </c>
-      <c r="I93" t="s">
-        <v>335</v>
+        <v>83</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <f>值集数据!$E$9</f>
       </c>
       <c r="J93" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="K93" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
       <c r="L93" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="M93" t="s">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="N93" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O93" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="P93" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="F94">
-        <f>值集数据!$E$79</f>
+        <f>值集数据!$E$83</f>
       </c>
       <c r="G94" t="s">
-        <v>80</v>
-      </c>
-      <c r="H94">
-        <f>值集数据!$E$19</f>
-      </c>
-      <c r="I94" t="s">
-        <v>338</v>
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J94" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="K94" t="s">
-        <v>169</v>
+        <v>404</v>
       </c>
       <c r="L94" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="M94" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="N94" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O94" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>82</v>
+        <v>406</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
       <c r="F95">
-        <f>值集数据!$E$79</f>
+        <f>值集数据!$E$83</f>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
-      </c>
-      <c r="H95">
-        <f>值集数据!$E$19</f>
-      </c>
-      <c r="I95" t="s">
-        <v>338</v>
+        <v>83</v>
+      </c>
+      <c r="H95" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95">
+        <f>值集数据!$E$24</f>
       </c>
       <c r="J95" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="L95" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="M95" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="N95" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O95" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="P95" t="s">
-        <v>82</v>
+        <v>406</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="F96">
-        <f>值集数据!$E$80</f>
+        <f>值集数据!$E$84</f>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
-      </c>
-      <c r="H96">
-        <f>值集数据!$E$24</f>
-      </c>
-      <c r="I96" t="s">
-        <v>322</v>
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+      <c r="I96">
+        <f>值集数据!$E$10</f>
       </c>
       <c r="J96" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="K96" t="s">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="L96" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="M96" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="N96" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O96" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="P96" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="F97">
-        <f>值集数据!$E$80</f>
+        <f>值集数据!$E$84</f>
       </c>
       <c r="G97" t="s">
-        <v>80</v>
-      </c>
-      <c r="H97">
-        <f>值集数据!$E$24</f>
-      </c>
-      <c r="I97" t="s">
-        <v>326</v>
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>83</v>
+      </c>
+      <c r="I97">
+        <f>值集数据!$E$10</f>
       </c>
       <c r="J97" t="s">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="K97" t="s">
-        <v>176</v>
+        <v>416</v>
       </c>
       <c r="L97" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="M97" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N97" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O97" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>417</v>
+      </c>
+      <c r="F98">
+        <f>值集数据!$E$85</f>
+      </c>
+      <c r="G98" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="J98" t="s">
+        <v>418</v>
+      </c>
+      <c r="K98" t="s">
+        <v>419</v>
+      </c>
+      <c r="L98" t="s">
+        <v>201</v>
+      </c>
+      <c r="M98" t="s">
+        <v>397</v>
+      </c>
+      <c r="N98" t="s">
+        <v>85</v>
+      </c>
+      <c r="O98" t="s">
+        <v>85</v>
+      </c>
+      <c r="P98" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>420</v>
+      </c>
+      <c r="F99">
+        <f>值集数据!$E$85</f>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="J99" t="s">
+        <v>421</v>
+      </c>
+      <c r="K99" t="s">
+        <v>422</v>
+      </c>
+      <c r="L99" t="s">
+        <v>193</v>
+      </c>
+      <c r="M99" t="s">
+        <v>423</v>
+      </c>
+      <c r="N99" t="s">
+        <v>85</v>
+      </c>
+      <c r="O99" t="s">
+        <v>85</v>
+      </c>
+      <c r="P99" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>424</v>
+      </c>
+      <c r="F100">
+        <f>值集数据!$E$85</f>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>83</v>
+      </c>
+      <c r="I100">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="J100" t="s">
+        <v>425</v>
+      </c>
+      <c r="K100" t="s">
+        <v>426</v>
+      </c>
+      <c r="L100" t="s">
+        <v>190</v>
+      </c>
+      <c r="M100" t="s">
+        <v>144</v>
+      </c>
+      <c r="N100" t="s">
+        <v>85</v>
+      </c>
+      <c r="O100" t="s">
+        <v>85</v>
+      </c>
+      <c r="P100" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>427</v>
+      </c>
+      <c r="F101">
+        <f>值集数据!$E$85</f>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101">
+        <f>值集数据!$E$20</f>
+      </c>
+      <c r="J101" t="s">
+        <v>425</v>
+      </c>
+      <c r="K101" t="s">
+        <v>426</v>
+      </c>
+      <c r="L101" t="s">
+        <v>246</v>
+      </c>
+      <c r="M101" t="s">
+        <v>365</v>
+      </c>
+      <c r="N101" t="s">
+        <v>85</v>
+      </c>
+      <c r="O101" t="s">
+        <v>85</v>
+      </c>
+      <c r="P101" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>428</v>
+      </c>
+      <c r="F102">
+        <f>值集数据!$E$86</f>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102">
+        <f>值集数据!$E$25</f>
+      </c>
+      <c r="J102" t="s">
+        <v>403</v>
+      </c>
+      <c r="K102" t="s">
+        <v>404</v>
+      </c>
+      <c r="L102" t="s">
+        <v>190</v>
+      </c>
+      <c r="M102" t="s">
+        <v>405</v>
+      </c>
+      <c r="N102" t="s">
+        <v>85</v>
+      </c>
+      <c r="O102" t="s">
+        <v>85</v>
+      </c>
+      <c r="P102" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>429</v>
+      </c>
+      <c r="F103">
+        <f>值集数据!$E$86</f>
+      </c>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103">
+        <f>值集数据!$E$25</f>
+      </c>
+      <c r="J103" t="s">
+        <v>408</v>
+      </c>
+      <c r="K103" t="s">
+        <v>409</v>
+      </c>
+      <c r="L103" t="s">
+        <v>193</v>
+      </c>
+      <c r="M103" t="s">
+        <v>360</v>
+      </c>
+      <c r="N103" t="s">
+        <v>85</v>
+      </c>
+      <c r="O103" t="s">
+        <v>85</v>
+      </c>
+      <c r="P103" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
